--- a/电子钥匙数据导入模版.xlsx
+++ b/电子钥匙数据导入模版.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/电子钥匙数据导入模版.xlsx
+++ b/电子钥匙数据导入模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>四川省</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>020001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,10 +505,11 @@
     <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="33.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="20.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -517,8 +522,11 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -530,6 +538,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1461646</v>
       </c>
     </row>
   </sheetData>
